--- a/docs/250X/250X_DOM.xlsx
+++ b/docs/250X/250X_DOM.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -95,9 +104,6 @@
   </si>
   <si>
     <t>Various</t>
-  </si>
-  <si>
-    <t>Same as AAVOID drone with 1 MCU</t>
   </si>
   <si>
     <t>Copper sheet</t>
@@ -154,30 +160,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$€]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="[$€]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font>
-      <u/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,96 +221,119 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.14"/>
-    <col customWidth="1" min="2" max="2" width="36.57"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="32.29"/>
-    <col customWidth="1" min="6" max="6" width="26.71"/>
-    <col customWidth="1" min="7" max="7" width="47.29"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -297,7 +356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -308,21 +367,21 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>HYPERLINK("http://www.hobbyking.com/hobbyking/store/__66499__Hobby_King_2_4Ghz_4Ch_Tx_Rx_V2_Mode_2_EU_Warehouse_.html","link")</f>
+        <f aca="false">HYPERLINK("http://www.hobbyking.com/hobbyking/store/__66499__Hobby_King_2_4Ghz_4Ch_Tx_Rx_V2_Mode_2_EU_Warehouse_.html","link")</f>
         <v>link</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>23.14</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F15" si="1">E4*5</f>
-        <v>€115.70</v>
+      <c r="F4" s="4" t="n">
+        <f aca="false">E4*5</f>
+        <v>115.7</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -333,21 +392,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>HYPERLINK("http://www.hobbyking.com/hobbyking/store/__36064__ZIPPY_Compact_1000mAh_3S_25C_Lipo_Pack_EU_Warehouse_.html","link")</f>
+        <f aca="false">HYPERLINK("http://www.hobbyking.com/hobbyking/store/__36064__ZIPPY_Compact_1000mAh_3S_25C_Lipo_Pack_EU_Warehouse_.html","link")</f>
         <v>link</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>5.55</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€27.75</v>
+      <c r="F5" s="4" t="n">
+        <f aca="false">E5*5</f>
+        <v>27.75</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -358,21 +417,21 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>HYPERLINK("http://www.hobbyking.com/hobbyking/store/__84723__LDPOWER_D250_2_Multicopter_Power_System_2206_1900kv_6_x_3_4_Pack_EU_Warehouse_.html","link")</f>
+        <f aca="false">HYPERLINK("http://www.hobbyking.com/hobbyking/store/__84723__LDPOWER_D250_2_Multicopter_Power_System_2206_1900kv_6_x_3_4_Pack_EU_Warehouse_.html","link")</f>
         <v>link</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>43.81</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€219.05</v>
+      <c r="F6" s="4" t="n">
+        <f aca="false">E6*5</f>
+        <v>219.05</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -382,22 +441,22 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f>HYPERLINK("http://www.ebay.de/itm/MPU-6050-GY-521-3-Achsen-Gyroskop-Accelerometer-Kreisel-Board-Sensor-Arduino-21-/121887579651","link")</f>
+      <c r="D7" s="3" t="str">
+        <f aca="false">HYPERLINK("http://www.ebay.de/itm/MPU-6050-GY-521-3-Achsen-Gyroskop-Accelerometer-Kreisel-Board-Sensor-Arduino-21-/121887579651","link")</f>
         <v>link</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>5.39</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€26.95</v>
+      <c r="F7" s="4" t="n">
+        <f aca="false">E7*5</f>
+        <v>26.95</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -408,19 +467,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>HYPERLINK("http://www.hobbyking.com/hobbyking/store/uh_viewitem.asp?idproduct=77525","link")</f>
+        <f aca="false">HYPERLINK("http://www.hobbyking.com/hobbyking/store/uh_viewitem.asp?idproduct=77525","link")</f>
         <v>link</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>6.99</v>
       </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€34.95</v>
+      <c r="F8" s="4" t="n">
+        <f aca="false">E8*5</f>
+        <v>34.95</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -433,18 +492,18 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€10.00</v>
+      <c r="E9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">E9*5</f>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -457,23 +516,21 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€20.00</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">E10*5</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -481,48 +538,48 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€5.00</v>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">E11*5</f>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f>HYPERLINK("http://www.hobbyking.com/hobbyking/store/__36304__Female_XT60_Connectors_5pcs_bag_GENUINE_EU_Warehouse_.html","link")</f>
+      <c r="D12" s="3" t="str">
+        <f aca="false">HYPERLINK("http://www.hobbyking.com/hobbyking/store/__36304__Female_XT60_Connectors_5pcs_bag_GENUINE_EU_Warehouse_.html","link")</f>
         <v>link</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€2.90</v>
+      <c r="F12" s="4" t="n">
+        <f aca="false">E12*5</f>
+        <v>2.9</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -530,23 +587,23 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€2.50</v>
+      <c r="F13" s="4" t="n">
+        <f aca="false">E13*5</f>
+        <v>2.5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -554,83 +611,77 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>€8.00</v>
+      <c r="F14" s="4" t="n">
+        <f aca="false">E14*5</f>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="3" t="str">
+        <f aca="false">HYPERLINK("https://www.flikto.de/products/pololu-5v-step-up-step-down-voltage-regulator-s7vf5","link")</f>
+        <v>link</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">E15*5</f>
+        <v>21.55</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="7"/>
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f>HYPERLINK("https://www.flikto.de/products/pololu-5v-step-up-step-down-voltage-regulator-s7vf5","link")</f>
-        <v>link</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.31</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>€21.55</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="10"/>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="8" t="str">
-        <f>sum(E4:E15)</f>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="4" t="str">
+        <f aca="false">SUM(E4:E15)</f>
         <v>€98.87</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f>sum(F4:F16)</f>
+        <f aca="false">SUM(F4:F16)</f>
         <v>€503.35</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="5"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
-    <hyperlink r:id="rId2" ref="D5"/>
-    <hyperlink r:id="rId3" ref="D6"/>
-    <hyperlink r:id="rId4" ref="D7"/>
-    <hyperlink r:id="rId5" ref="D8"/>
-    <hyperlink r:id="rId6" ref="D12"/>
-    <hyperlink r:id="rId7" ref="D15"/>
-  </hyperlinks>
-  <drawing r:id="rId8"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>